--- a/Hours/research/files/research.xlsx
+++ b/Hours/research/files/research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\research\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23AA581-7CAD-4671-8613-BBF89DE2D67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4EAAB-BD9B-4973-8794-C5A4FCDDAED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,13 @@
     <t>Hours</t>
   </si>
   <si>
-    <t>STEM</t>
-  </si>
-  <si>
     <t>Station1</t>
   </si>
   <si>
     <t>GCTx</t>
+  </si>
+  <si>
+    <t>S-STEM</t>
   </si>
 </sst>
 </file>
@@ -363,7 +363,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -386,7 +386,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>89</v>
@@ -397,7 +397,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>270</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>110</v>

--- a/Hours/research/files/research.xlsx
+++ b/Hours/research/files/research.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\research\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4EAAB-BD9B-4973-8794-C5A4FCDDAED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3880E5-1915-4303-8724-CCE633CFA805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9720" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -362,9 +373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -389,10 +398,11 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C2">
-        <v>222.5</v>
+        <f>B2*3</f>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/Hours/research/files/research.xlsx
+++ b/Hours/research/files/research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\research\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3880E5-1915-4303-8724-CCE633CFA805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109B055-1D8F-4645-8F58-FCC603858432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9720" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2025" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,8 +89,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,7 +383,7 @@
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,19 +394,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>167</v>
-      </c>
       <c r="C2">
-        <f>B2*3</f>
-        <v>501</v>
+        <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -413,13 +410,16 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
         <v>110</v>
       </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Hours/research/files/research.xlsx
+++ b/Hours/research/files/research.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10768192\Desktop\pbischoff3.github.io\Hours\research\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UVUStudentLoaner\Desktop\REPOs\personal\pbischoff3.github.io\Hours\research\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E109B055-1D8F-4645-8F58-FCC603858432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94126C2-2A2B-4D5A-81E6-34729418A481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>description</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>S-STEM</t>
+  </si>
+  <si>
+    <t>SPUR</t>
   </si>
 </sst>
 </file>
@@ -374,16 +377,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,15 +399,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>146</v>
+      </c>
       <c r="C2">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <f>B2*5</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -410,7 +419,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -418,7 +427,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="M7" s="1"/>
     </row>
   </sheetData>
